--- a/output.xlsx
+++ b/output.xlsx
@@ -499,37 +499,37 @@
         <v>100000</v>
       </c>
       <c r="F2" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G2" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H2">
         <v>0.05</v>
       </c>
       <c r="I2">
-        <v>2208</v>
+        <v>755</v>
       </c>
       <c r="J2">
-        <v>15.97710163145554</v>
+        <v>3.182045408072498</v>
       </c>
       <c r="K2">
-        <v>0.5317028985507246</v>
+        <v>0.4913907284768212</v>
       </c>
       <c r="L2">
-        <v>2.309778028928413</v>
+        <v>-0.270810111195086</v>
       </c>
       <c r="M2">
-        <v>3.852316669475774</v>
+        <v>7.90272816278786</v>
       </c>
       <c r="N2">
-        <v>0.3591281029490185</v>
+        <v>0.3474129117771205</v>
       </c>
       <c r="O2">
-        <v>0.6816078178845558</v>
+        <v>0.5473372235262026</v>
       </c>
       <c r="P2">
-        <v>-0.4485700468560092</v>
+        <v>0.014317896010261</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -549,37 +549,37 @@
         <v>100000</v>
       </c>
       <c r="F3" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G3" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H3">
         <v>0.05</v>
       </c>
       <c r="I3">
-        <v>2208</v>
+        <v>755</v>
       </c>
       <c r="J3">
-        <v>15.96627484916861</v>
+        <v>3.182357810890694</v>
       </c>
       <c r="K3">
-        <v>0.5317028985507246</v>
+        <v>0.4913907284768212</v>
       </c>
       <c r="L3">
-        <v>2.307535178694132</v>
+        <v>-0.2707385217150347</v>
       </c>
       <c r="M3">
-        <v>3.496938278707605</v>
+        <v>7.529519898428275</v>
       </c>
       <c r="N3">
-        <v>0.3589849859195812</v>
+        <v>0.3471131695065678</v>
       </c>
       <c r="O3">
-        <v>0.6815403450391457</v>
+        <v>0.5471618796194797</v>
       </c>
       <c r="P3">
-        <v>-0.6728550702840155</v>
+        <v>0.02147684401539097</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -599,37 +599,37 @@
         <v>100000</v>
       </c>
       <c r="F4" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G4" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H4">
         <v>0.05</v>
       </c>
       <c r="I4">
-        <v>2208</v>
+        <v>755</v>
       </c>
       <c r="J4">
-        <v>15.97710163145554</v>
+        <v>3.182045408072498</v>
       </c>
       <c r="K4">
-        <v>0.5317028985507246</v>
+        <v>0.4913907284768212</v>
       </c>
       <c r="L4">
-        <v>2.309778028928413</v>
+        <v>-0.270810111195086</v>
       </c>
       <c r="M4">
-        <v>3.852316669475774</v>
+        <v>7.90272816278786</v>
       </c>
       <c r="N4">
-        <v>0.3591281029490185</v>
+        <v>0.3474129117771205</v>
       </c>
       <c r="O4">
-        <v>0.6816078178845558</v>
+        <v>0.5473372235262026</v>
       </c>
       <c r="P4">
-        <v>-0.4485700468560092</v>
+        <v>0.014317896010261</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -649,37 +649,37 @@
         <v>100000</v>
       </c>
       <c r="F5" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G5" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H5">
         <v>0.05</v>
       </c>
       <c r="I5">
-        <v>2208</v>
+        <v>755</v>
       </c>
       <c r="J5">
-        <v>15.98792841374245</v>
+        <v>3.1817330052543</v>
       </c>
       <c r="K5">
-        <v>0.5317028985507246</v>
+        <v>0.4913907284768212</v>
       </c>
       <c r="L5">
-        <v>2.312020879162692</v>
+        <v>-0.2708817006751372</v>
       </c>
       <c r="M5">
-        <v>4.336783252074394</v>
+        <v>8.37413480824787</v>
       </c>
       <c r="N5">
-        <v>0.3593244554584976</v>
+        <v>0.3478310589424748</v>
       </c>
       <c r="O5">
-        <v>0.6817191821151676</v>
+        <v>0.5476408342013072</v>
       </c>
       <c r="P5">
-        <v>-0.2242850234280046</v>
+        <v>0.007158948005130664</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -699,37 +699,37 @@
         <v>100000</v>
       </c>
       <c r="F6" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G6" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H6">
         <v>0.05</v>
       </c>
       <c r="I6">
-        <v>2208</v>
+        <v>755</v>
       </c>
       <c r="J6">
-        <v>15.99875519602937</v>
+        <v>3.181420602436103</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.314263729396973</v>
+        <v>-0.2709532901551887</v>
       </c>
       <c r="M6">
-        <v>5.020136268853486</v>
+        <v>8.982443675205031</v>
       </c>
       <c r="N6">
-        <v>0.3595925200672531</v>
+        <v>0.3483827000487694</v>
       </c>
       <c r="O6">
-        <v>0.6818730275369549</v>
+        <v>0.548053241761417</v>
       </c>
       <c r="P6">
-        <v>-8.930054763289302E-16</v>
+        <v>-5.646697237828611E-17</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -749,37 +749,37 @@
         <v>100000</v>
       </c>
       <c r="F7" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G7" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H7">
         <v>0.05</v>
       </c>
       <c r="I7">
-        <v>2200</v>
+        <v>747</v>
       </c>
       <c r="J7">
-        <v>15.8434990819314</v>
+        <v>3.176606589211566</v>
       </c>
       <c r="K7">
-        <v>0.5536363636363636</v>
+        <v>0.5073627844712182</v>
       </c>
       <c r="L7">
-        <v>2.282101245415113</v>
+        <v>-0.2720564578720916</v>
       </c>
       <c r="M7">
-        <v>1.063891544043771</v>
+        <v>3.622389138887422</v>
       </c>
       <c r="N7">
-        <v>0.3578718977609515</v>
+        <v>0.3456568621175808</v>
       </c>
       <c r="O7">
-        <v>0.6825094619299146</v>
+        <v>0.5491874786741809</v>
       </c>
       <c r="P7">
-        <v>-4.03873313173404</v>
+        <v>0.2100836989476447</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -799,37 +799,37 @@
         <v>100000</v>
       </c>
       <c r="F8" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G8" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H8">
         <v>0.05</v>
       </c>
       <c r="I8">
-        <v>2200</v>
+        <v>747</v>
       </c>
       <c r="J8">
-        <v>15.87599232324248</v>
+        <v>3.175078647313737</v>
       </c>
       <c r="K8">
-        <v>0.5536363636363636</v>
+        <v>0.5073627844712182</v>
       </c>
       <c r="L8">
-        <v>2.288832467301336</v>
+        <v>-0.2724065973703376</v>
       </c>
       <c r="M8">
-        <v>1.161999664265936</v>
+        <v>3.962448277330066</v>
       </c>
       <c r="N8">
-        <v>0.3583719221912912</v>
+        <v>0.3466981074042791</v>
       </c>
       <c r="O8">
-        <v>0.6827793521885543</v>
+        <v>0.5499103140161106</v>
       </c>
       <c r="P8">
-        <v>-3.365610943111681</v>
+        <v>0.1750697491230421</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -849,37 +849,37 @@
         <v>100000</v>
       </c>
       <c r="F9" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G9" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H9">
         <v>0.05</v>
       </c>
       <c r="I9">
-        <v>2200</v>
+        <v>747</v>
       </c>
       <c r="J9">
-        <v>15.93014772542761</v>
+        <v>3.172532077484021</v>
       </c>
       <c r="K9">
-        <v>0.5536363636363636</v>
+        <v>0.5073627844712182</v>
       </c>
       <c r="L9">
-        <v>2.300051170445041</v>
+        <v>-0.2729901632007478</v>
       </c>
       <c r="M9">
-        <v>1.442657250726165</v>
+        <v>4.815904641176811</v>
       </c>
       <c r="N9">
-        <v>0.3591343970752844</v>
+        <v>0.3483539513434935</v>
       </c>
       <c r="O9">
-        <v>0.6832173504648981</v>
+        <v>0.5510550142459915</v>
       </c>
       <c r="P9">
-        <v>-2.243740628741129</v>
+        <v>0.116713166082027</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -899,37 +899,37 @@
         <v>100000</v>
       </c>
       <c r="F10" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G10" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H10">
         <v>0.05</v>
       </c>
       <c r="I10">
-        <v>2200</v>
+        <v>747</v>
       </c>
       <c r="J10">
-        <v>15.98430312761274</v>
+        <v>3.169985507654305</v>
       </c>
       <c r="K10">
-        <v>0.5536363636363636</v>
+        <v>0.5073627844712182</v>
       </c>
       <c r="L10">
-        <v>2.311269873588747</v>
+        <v>-0.273573729031158</v>
       </c>
       <c r="M10">
-        <v>2.04595284005636</v>
+        <v>6.266288916292239</v>
       </c>
       <c r="N10">
-        <v>0.3599619265968536</v>
+        <v>0.3501620367917023</v>
       </c>
       <c r="O10">
-        <v>0.6837142309669625</v>
+        <v>0.5523690962516214</v>
       </c>
       <c r="P10">
-        <v>-1.121870314370605</v>
+        <v>0.0583565830410029</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -949,37 +949,37 @@
         <v>100000</v>
       </c>
       <c r="F11" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G11" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H11">
         <v>0.05</v>
       </c>
       <c r="I11">
-        <v>2200</v>
+        <v>747</v>
       </c>
       <c r="J11">
-        <v>16.03845852979786</v>
+        <v>3.167438937824589</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.322488576732453</v>
+        <v>-0.274157294861568</v>
       </c>
       <c r="M11">
-        <v>3.476553885765196</v>
+        <v>8.789727967893237</v>
       </c>
       <c r="N11">
-        <v>0.360859918611059</v>
+        <v>0.352072998028031</v>
       </c>
       <c r="O11">
-        <v>0.684266072430931</v>
+        <v>0.553807130280899</v>
       </c>
       <c r="P11">
-        <v>-9.091717278021282E-16</v>
+        <v>-1.902390189451406E-17</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -999,37 +999,37 @@
         <v>100000</v>
       </c>
       <c r="F12" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G12" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H12">
         <v>0.05</v>
       </c>
       <c r="I12">
-        <v>2180</v>
+        <v>727</v>
       </c>
       <c r="J12">
-        <v>15.44148140919222</v>
+        <v>3.155273675019038</v>
       </c>
       <c r="K12">
-        <v>0.5472477064220184</v>
+        <v>0.4401650618982118</v>
       </c>
       <c r="L12">
-        <v>2.198820229172879</v>
+        <v>-0.2769450572894573</v>
       </c>
       <c r="M12">
-        <v>0.2993802730171937</v>
+        <v>0.9696723510003199</v>
       </c>
       <c r="N12">
-        <v>0.3562710235284096</v>
+        <v>0.3432747018058057</v>
       </c>
       <c r="O12">
-        <v>0.6852290128030879</v>
+        <v>0.5544303819380674</v>
       </c>
       <c r="P12">
-        <v>-14.28297810238723</v>
+        <v>1.257640497575475</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1049,37 +1049,37 @@
         <v>100000</v>
       </c>
       <c r="F13" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G13" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H13">
         <v>0.05</v>
       </c>
       <c r="I13">
-        <v>2180</v>
+        <v>727</v>
       </c>
       <c r="J13">
-        <v>15.59601868713326</v>
+        <v>3.142972754643203</v>
       </c>
       <c r="K13">
-        <v>0.5472477064220184</v>
+        <v>0.4401650618982118</v>
       </c>
       <c r="L13">
-        <v>2.230833800781678</v>
+        <v>-0.2797639066805748</v>
       </c>
       <c r="M13">
-        <v>0.2997979616653646</v>
+        <v>1.037788194680271</v>
       </c>
       <c r="N13">
-        <v>0.3581725253979528</v>
+        <v>0.3474826191786011</v>
       </c>
       <c r="O13">
-        <v>0.6863744558907692</v>
+        <v>0.5575466323793485</v>
       </c>
       <c r="P13">
-        <v>-11.08162094150733</v>
+        <v>0.9757555584637306</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1099,37 +1099,37 @@
         <v>100000</v>
       </c>
       <c r="F14" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G14" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H14">
         <v>0.05</v>
       </c>
       <c r="I14">
-        <v>2180</v>
+        <v>727</v>
       </c>
       <c r="J14">
-        <v>15.77433093091139</v>
+        <v>3.128779384978778</v>
       </c>
       <c r="K14">
-        <v>0.5472477064220184</v>
+        <v>0.4401650618982118</v>
       </c>
       <c r="L14">
-        <v>2.267772537253369</v>
+        <v>-0.2830164252087872</v>
       </c>
       <c r="M14">
-        <v>0.3018787114227475</v>
+        <v>1.147758009374391</v>
       </c>
       <c r="N14">
-        <v>0.3599529025548377</v>
+        <v>0.3517850952199715</v>
       </c>
       <c r="O14">
-        <v>0.6874982068956327</v>
+        <v>0.5607479132117907</v>
       </c>
       <c r="P14">
-        <v>-7.387747294338221</v>
+        <v>0.6505037056424873</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1149,37 +1149,37 @@
         <v>100000</v>
       </c>
       <c r="F15" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G15" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H15">
         <v>0.05</v>
       </c>
       <c r="I15">
-        <v>2180</v>
+        <v>727</v>
       </c>
       <c r="J15">
-        <v>15.95264317468951</v>
+        <v>3.114586015314353</v>
       </c>
       <c r="K15">
-        <v>0.5472477064220184</v>
+        <v>0.4401650618982118</v>
       </c>
       <c r="L15">
-        <v>2.30471127372506</v>
+        <v>-0.2862689437369997</v>
       </c>
       <c r="M15">
-        <v>0.3056842623205641</v>
+        <v>1.299423643925732</v>
       </c>
       <c r="N15">
-        <v>0.3619473942331721</v>
+        <v>0.3566160979926232</v>
       </c>
       <c r="O15">
-        <v>0.6888694194601477</v>
+        <v>0.5645766370241605</v>
       </c>
       <c r="P15">
-        <v>-3.693873647169165</v>
+        <v>0.3252518528212331</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1199,37 +1199,37 @@
         <v>100000</v>
       </c>
       <c r="F16" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G16" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H16">
         <v>0.05</v>
       </c>
       <c r="I16">
-        <v>2180</v>
+        <v>727</v>
       </c>
       <c r="J16">
-        <v>16.13095541846764</v>
+        <v>3.100392645649928</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.341650010196751</v>
+        <v>-0.289521462265212</v>
       </c>
       <c r="M16">
-        <v>0.3112409882681185</v>
+        <v>1.503758775634188</v>
       </c>
       <c r="N16">
-        <v>0.3641259544753465</v>
+        <v>0.361666788363763</v>
       </c>
       <c r="O16">
-        <v>0.6903288539852965</v>
+        <v>0.5685303155673161</v>
       </c>
       <c r="P16">
-        <v>-9.109940121327889E-16</v>
+        <v>-3.909451090839616E-17</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1249,37 +1249,37 @@
         <v>100000</v>
       </c>
       <c r="F17" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G17" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H17">
         <v>0.05</v>
       </c>
       <c r="I17">
-        <v>2150</v>
+        <v>697</v>
       </c>
       <c r="J17">
-        <v>14.88271661985436</v>
+        <v>3.109731426752873</v>
       </c>
       <c r="K17">
-        <v>0.5609302325581396</v>
+        <v>0.4175035868005739</v>
       </c>
       <c r="L17">
-        <v>2.083067856449141</v>
+        <v>-0.2873814096007359</v>
       </c>
       <c r="M17">
-        <v>0.1356660096516304</v>
+        <v>0.03189910807946026</v>
       </c>
       <c r="N17">
-        <v>0.3553008126677698</v>
+        <v>0.342732034213567</v>
       </c>
       <c r="O17">
-        <v>0.6896572831695075</v>
+        <v>0.5635919342717898</v>
       </c>
       <c r="P17">
-        <v>-28.80443625478689</v>
+        <v>2.970741860446415</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1299,37 +1299,37 @@
         <v>100000</v>
       </c>
       <c r="F18" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G18" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H18">
         <v>0.05</v>
       </c>
       <c r="I18">
-        <v>2150</v>
+        <v>697</v>
       </c>
       <c r="J18">
-        <v>15.2126562878034</v>
+        <v>3.078969985832124</v>
       </c>
       <c r="K18">
-        <v>0.5609302325581396</v>
+        <v>0.4175035868005739</v>
       </c>
       <c r="L18">
-        <v>2.151417366206262</v>
+        <v>-0.2944306275746765</v>
       </c>
       <c r="M18">
-        <v>0.1311481984818739</v>
+        <v>0.006716594836388247</v>
       </c>
       <c r="N18">
-        <v>0.3590383120216006</v>
+        <v>0.3514123277968348</v>
       </c>
       <c r="O18">
-        <v>0.6920094112525546</v>
+        <v>0.5701245793027392</v>
       </c>
       <c r="P18">
-        <v>-21.96948527907478</v>
+        <v>2.265820063052345</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1349,37 +1349,37 @@
         <v>100000</v>
       </c>
       <c r="F19" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G19" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H19">
         <v>0.05</v>
       </c>
       <c r="I19">
-        <v>2150</v>
+        <v>697</v>
       </c>
       <c r="J19">
-        <v>15.56616307489167</v>
+        <v>3.046011299131321</v>
       </c>
       <c r="K19">
-        <v>0.5609302325581396</v>
+        <v>0.4175035868005739</v>
       </c>
       <c r="L19">
-        <v>2.224648983803177</v>
+        <v>-0.3019833611181845</v>
       </c>
       <c r="M19">
-        <v>0.1266828900551828</v>
+        <v>-0.01501215402146635</v>
       </c>
       <c r="N19">
-        <v>0.3621342638925402</v>
+        <v>0.3594125452956483</v>
       </c>
       <c r="O19">
-        <v>0.694263638522948</v>
+        <v>0.5766808352135748</v>
       </c>
       <c r="P19">
-        <v>-14.64632351938321</v>
+        <v>1.510546708701552</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1399,37 +1399,37 @@
         <v>100000</v>
       </c>
       <c r="F20" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G20" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H20">
         <v>0.05</v>
       </c>
       <c r="I20">
-        <v>2150</v>
+        <v>697</v>
       </c>
       <c r="J20">
-        <v>15.91966986197993</v>
+        <v>3.013052612430519</v>
       </c>
       <c r="K20">
-        <v>0.5609302325581396</v>
+        <v>0.4175035868005739</v>
       </c>
       <c r="L20">
-        <v>2.297880601400092</v>
+        <v>-0.3095360946616924</v>
       </c>
       <c r="M20">
-        <v>0.1225734502500576</v>
+        <v>-0.03143198243438597</v>
       </c>
       <c r="N20">
-        <v>0.3653699188408065</v>
+        <v>0.3677785637033261</v>
       </c>
       <c r="O20">
-        <v>0.6966590188842355</v>
+        <v>0.583894269722566</v>
       </c>
       <c r="P20">
-        <v>-7.323161759691682</v>
+        <v>0.7552733543507615</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1449,37 +1449,37 @@
         <v>100000</v>
       </c>
       <c r="F21" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G21" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H21">
         <v>0.05</v>
       </c>
       <c r="I21">
-        <v>2150</v>
+        <v>697</v>
       </c>
       <c r="J21">
-        <v>16.2731766490682</v>
+        <v>2.980093925729717</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.37111221899701</v>
+        <v>-0.3170888282052</v>
       </c>
       <c r="M21">
-        <v>0.1187710097769425</v>
+        <v>-0.04264880127350307</v>
       </c>
       <c r="N21">
-        <v>0.3687941671466273</v>
+        <v>0.3763899236324359</v>
       </c>
       <c r="O21">
-        <v>0.6990943959827696</v>
+        <v>0.590914702280173</v>
       </c>
       <c r="P21">
-        <v>-8.840473572829154E-16</v>
+        <v>-2.038860073917074E-16</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1499,37 +1499,37 @@
         <v>100000</v>
       </c>
       <c r="F22" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G22" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H22">
         <v>0.05</v>
       </c>
       <c r="I22">
-        <v>2196</v>
+        <v>743</v>
       </c>
       <c r="J22">
-        <v>15.90444118397194</v>
+        <v>3.167087199221689</v>
       </c>
       <c r="K22">
-        <v>0.5346083788706739</v>
+        <v>0.4858681022880215</v>
       </c>
       <c r="L22">
-        <v>2.294725865012785</v>
+        <v>-0.2742378984356359</v>
       </c>
       <c r="M22">
-        <v>1.061838011004398</v>
+        <v>4.056509654988578</v>
       </c>
       <c r="N22">
-        <v>0.3597534059306026</v>
+        <v>0.3499014344838798</v>
       </c>
       <c r="O22">
-        <v>0.6843454841706661</v>
+        <v>0.5539851890703535</v>
       </c>
       <c r="P22">
-        <v>-3.160087734355823</v>
+        <v>0.1875620337826682</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1549,37 +1549,37 @@
         <v>100000</v>
       </c>
       <c r="F23" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G23" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H23">
         <v>0.05</v>
       </c>
       <c r="I23">
-        <v>2196</v>
+        <v>743</v>
       </c>
       <c r="J23">
-        <v>15.82816863267873</v>
+        <v>3.171179623688141</v>
       </c>
       <c r="K23">
-        <v>0.5346083788706739</v>
+        <v>0.4858681022880215</v>
       </c>
       <c r="L23">
-        <v>2.278925426341006</v>
+        <v>-0.2733000882667225</v>
       </c>
       <c r="M23">
-        <v>0.9589719287556605</v>
+        <v>3.334545513968199</v>
       </c>
       <c r="N23">
-        <v>0.3597353607077312</v>
+        <v>0.349612087888017</v>
       </c>
       <c r="O23">
-        <v>0.6843431123929425</v>
+        <v>0.5540617760477076</v>
       </c>
       <c r="P23">
-        <v>-4.740131601533736</v>
+        <v>0.2813430506740018</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1599,37 +1599,37 @@
         <v>100000</v>
       </c>
       <c r="F24" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G24" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H24">
         <v>0.05</v>
       </c>
       <c r="I24">
-        <v>2196</v>
+        <v>743</v>
       </c>
       <c r="J24">
-        <v>15.90444118397194</v>
+        <v>3.167087199221689</v>
       </c>
       <c r="K24">
-        <v>0.5346083788706739</v>
+        <v>0.4858681022880215</v>
       </c>
       <c r="L24">
-        <v>2.294725865012785</v>
+        <v>-0.2742378984356359</v>
       </c>
       <c r="M24">
-        <v>1.061838011004398</v>
+        <v>4.056509654988578</v>
       </c>
       <c r="N24">
-        <v>0.3597534059306026</v>
+        <v>0.3499014344838798</v>
       </c>
       <c r="O24">
-        <v>0.6843454841706661</v>
+        <v>0.5539851890703535</v>
       </c>
       <c r="P24">
-        <v>-3.160087734355823</v>
+        <v>0.1875620337826682</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1649,37 +1649,37 @@
         <v>100000</v>
       </c>
       <c r="F25" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G25" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H25">
         <v>0.05</v>
       </c>
       <c r="I25">
-        <v>2196</v>
+        <v>743</v>
       </c>
       <c r="J25">
-        <v>15.98071373526516</v>
+        <v>3.162994774755238</v>
       </c>
       <c r="K25">
-        <v>0.5346083788706739</v>
+        <v>0.4858681022880215</v>
       </c>
       <c r="L25">
-        <v>2.310526303684565</v>
+        <v>-0.2751757086045492</v>
       </c>
       <c r="M25">
-        <v>1.217229102032128</v>
+        <v>5.539376755436347</v>
       </c>
       <c r="N25">
-        <v>0.3604291441632737</v>
+        <v>0.3515805505473457</v>
       </c>
       <c r="O25">
-        <v>0.6847808319452868</v>
+        <v>0.5549794501116715</v>
       </c>
       <c r="P25">
-        <v>-1.580043867177912</v>
+        <v>0.0937810168913334</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1699,37 +1699,37 @@
         <v>100000</v>
       </c>
       <c r="F26" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G26" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H26">
         <v>0.05</v>
       </c>
       <c r="I26">
-        <v>2196</v>
+        <v>743</v>
       </c>
       <c r="J26">
-        <v>16.05698628655837</v>
+        <v>3.158902350288786</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>2.326326742356344</v>
+        <v>-0.2761135187734625</v>
       </c>
       <c r="M26">
-        <v>1.459572862792595</v>
+        <v>8.680743533116608</v>
       </c>
       <c r="N26">
-        <v>0.3615088170639465</v>
+        <v>0.3539425170774273</v>
       </c>
       <c r="O26">
-        <v>0.685468578171529</v>
+        <v>0.5566621837814985</v>
       </c>
       <c r="P26">
-        <v>-8.9788528767499E-16</v>
+        <v>-5.737895578143474E-17</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1749,37 +1749,37 @@
         <v>100000</v>
       </c>
       <c r="F27" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G27" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H27">
         <v>0.05</v>
       </c>
       <c r="I27">
-        <v>2182</v>
+        <v>729</v>
       </c>
       <c r="J27">
-        <v>15.62493225507943</v>
+        <v>3.148681457555822</v>
       </c>
       <c r="K27">
-        <v>0.5476626947754354</v>
+        <v>0.4595336076817558</v>
       </c>
       <c r="L27">
-        <v>2.236823466124842</v>
+        <v>-0.278455714022006</v>
       </c>
       <c r="M27">
-        <v>0.3450932719034835</v>
+        <v>1.297651532958635</v>
       </c>
       <c r="N27">
-        <v>0.3590203590795035</v>
+        <v>0.348881847823913</v>
       </c>
       <c r="O27">
-        <v>0.6865592236834619</v>
+        <v>0.5580874644501456</v>
       </c>
       <c r="P27">
-        <v>-10.28926022578077</v>
+        <v>0.9231140724922071</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1799,37 +1799,37 @@
         <v>100000</v>
       </c>
       <c r="F28" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G28" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H28">
         <v>0.05</v>
       </c>
       <c r="I28">
-        <v>2182</v>
+        <v>729</v>
       </c>
       <c r="J28">
-        <v>15.62493225507943</v>
+        <v>3.148681457555822</v>
       </c>
       <c r="K28">
-        <v>0.5476626947754354</v>
+        <v>0.4595336076817558</v>
       </c>
       <c r="L28">
-        <v>2.236823466124842</v>
+        <v>-0.278455714022006</v>
       </c>
       <c r="M28">
-        <v>0.3450932719034835</v>
+        <v>1.297651532958635</v>
       </c>
       <c r="N28">
-        <v>0.3590203590795035</v>
+        <v>0.348881847823913</v>
       </c>
       <c r="O28">
-        <v>0.6865592236834619</v>
+        <v>0.5580874644501456</v>
       </c>
       <c r="P28">
-        <v>-10.28926022578077</v>
+        <v>0.9231140724922071</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1849,37 +1849,37 @@
         <v>100000</v>
       </c>
       <c r="F29" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G29" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H29">
         <v>0.05</v>
       </c>
       <c r="I29">
-        <v>2182</v>
+        <v>729</v>
       </c>
       <c r="J29">
-        <v>15.79049477407915</v>
+        <v>3.135253812527651</v>
       </c>
       <c r="K29">
-        <v>0.5476626947754354</v>
+        <v>0.4595336076817558</v>
       </c>
       <c r="L29">
-        <v>2.271121000210778</v>
+        <v>-0.2815327609303134</v>
       </c>
       <c r="M29">
-        <v>0.34371299376558</v>
+        <v>1.429063896393662</v>
       </c>
       <c r="N29">
-        <v>0.3600885125322828</v>
+        <v>0.3517853233975566</v>
       </c>
       <c r="O29">
-        <v>0.6872254395931653</v>
+        <v>0.5601699583815879</v>
       </c>
       <c r="P29">
-        <v>-6.859506817187166</v>
+        <v>0.6154093816614747</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1899,37 +1899,37 @@
         <v>100000</v>
       </c>
       <c r="F30" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G30" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H30">
         <v>0.05</v>
       </c>
       <c r="I30">
-        <v>2182</v>
+        <v>729</v>
       </c>
       <c r="J30">
-        <v>15.95605729307887</v>
+        <v>3.121826167499482</v>
       </c>
       <c r="K30">
-        <v>0.5476626947754354</v>
+        <v>0.4595336076817558</v>
       </c>
       <c r="L30">
-        <v>2.305418534296714</v>
+        <v>-0.2846098078386207</v>
       </c>
       <c r="M30">
-        <v>0.3439616058698446</v>
+        <v>1.620201599628851</v>
       </c>
       <c r="N30">
-        <v>0.3617530334483214</v>
+        <v>0.355939406228222</v>
       </c>
       <c r="O30">
-        <v>0.6883439959306233</v>
+        <v>0.5632780199130263</v>
       </c>
       <c r="P30">
-        <v>-3.42975340859358</v>
+        <v>0.3077046908307368</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1949,37 +1949,37 @@
         <v>100000</v>
       </c>
       <c r="F31" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G31" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H31">
         <v>0.05</v>
       </c>
       <c r="I31">
-        <v>2182</v>
+        <v>729</v>
       </c>
       <c r="J31">
-        <v>16.12161981207858</v>
+        <v>3.108398522471312</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>2.339716068382649</v>
+        <v>-0.2876868547469281</v>
       </c>
       <c r="M31">
-        <v>0.3457370876654741</v>
+        <v>1.891475721271338</v>
       </c>
       <c r="N31">
-        <v>0.3637988015360347</v>
+        <v>0.36068107574801</v>
       </c>
       <c r="O31">
-        <v>0.6897169533269629</v>
+        <v>0.5670040413244296</v>
       </c>
       <c r="P31">
-        <v>-9.101590038723556E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1999,37 +1999,37 @@
         <v>100000</v>
       </c>
       <c r="F32" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G32" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H32">
         <v>0.05</v>
       </c>
       <c r="I32">
-        <v>2154</v>
+        <v>701</v>
       </c>
       <c r="J32">
-        <v>15.09000526046243</v>
+        <v>3.102717382510284</v>
       </c>
       <c r="K32">
-        <v>0.5584958217270195</v>
+        <v>0.4165477888730385</v>
       </c>
       <c r="L32">
-        <v>2.126009273744772</v>
+        <v>-0.2889887311456615</v>
       </c>
       <c r="M32">
-        <v>0.1479533392413885</v>
+        <v>0.1038487153036221</v>
       </c>
       <c r="N32">
-        <v>0.358123523405015</v>
+        <v>0.3484148626704814</v>
       </c>
       <c r="O32">
-        <v>0.690737170920961</v>
+        <v>0.5667535055768991</v>
       </c>
       <c r="P32">
-        <v>-24.12061472633441</v>
+        <v>2.426499659418034</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2049,37 +2049,37 @@
         <v>100000</v>
       </c>
       <c r="F33" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G33" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H33">
         <v>0.05</v>
       </c>
       <c r="I33">
-        <v>2154</v>
+        <v>701</v>
       </c>
       <c r="J33">
-        <v>15.25634248891855</v>
+        <v>3.087590552394752</v>
       </c>
       <c r="K33">
-        <v>0.5584958217270195</v>
+        <v>0.4165477888730385</v>
       </c>
       <c r="L33">
-        <v>2.160467294782392</v>
+        <v>-0.2924551592305445</v>
       </c>
       <c r="M33">
-        <v>0.1460760329721952</v>
+        <v>0.09163986275635433</v>
       </c>
       <c r="N33">
-        <v>0.3592173969445553</v>
+        <v>0.3513790375966432</v>
       </c>
       <c r="O33">
-        <v>0.6915029701107769</v>
+        <v>0.5690738763747194</v>
       </c>
       <c r="P33">
-        <v>-20.67481262257237</v>
+        <v>2.079856850929741</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2099,37 +2099,37 @@
         <v>100000</v>
       </c>
       <c r="F34" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G34" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H34">
         <v>0.05</v>
       </c>
       <c r="I34">
-        <v>2154</v>
+        <v>701</v>
       </c>
       <c r="J34">
-        <v>15.58901694583078</v>
+        <v>3.057336892163689</v>
       </c>
       <c r="K34">
-        <v>0.5584958217270195</v>
+        <v>0.4165477888730385</v>
       </c>
       <c r="L34">
-        <v>2.229383336857634</v>
+        <v>-0.2993880154003102</v>
       </c>
       <c r="M34">
-        <v>0.1427192029270122</v>
+        <v>0.07106967581330532</v>
       </c>
       <c r="N34">
-        <v>0.3617871376030672</v>
+        <v>0.3582559255465778</v>
       </c>
       <c r="O34">
-        <v>0.6933666645581757</v>
+        <v>0.5746485000208877</v>
       </c>
       <c r="P34">
-        <v>-13.78320841504823</v>
+        <v>1.386571233953163</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2149,37 +2149,37 @@
         <v>100000</v>
       </c>
       <c r="F35" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G35" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H35">
         <v>0.05</v>
       </c>
       <c r="I35">
-        <v>2154</v>
+        <v>701</v>
       </c>
       <c r="J35">
-        <v>15.92169140274301</v>
+        <v>3.027083231932626</v>
       </c>
       <c r="K35">
-        <v>0.5584958217270195</v>
+        <v>0.4165477888730385</v>
       </c>
       <c r="L35">
-        <v>2.298299378932875</v>
+        <v>-0.306320871570076</v>
       </c>
       <c r="M35">
-        <v>0.1398536157610001</v>
+        <v>0.05544058304723423</v>
       </c>
       <c r="N35">
-        <v>0.3648220814343601</v>
+        <v>0.3660967126610924</v>
       </c>
       <c r="O35">
-        <v>0.6955813759030637</v>
+        <v>0.5812234862522399</v>
       </c>
       <c r="P35">
-        <v>-6.891604207524109</v>
+        <v>0.6932856169765812</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2199,37 +2199,37 @@
         <v>100000</v>
       </c>
       <c r="F36" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G36" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H36">
         <v>0.05</v>
       </c>
       <c r="I36">
-        <v>2154</v>
+        <v>701</v>
       </c>
       <c r="J36">
-        <v>16.25436585965524</v>
+        <v>2.996829571701563</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>2.367215421008116</v>
+        <v>-0.3132537277398418</v>
       </c>
       <c r="M36">
-        <v>0.1374198492246067</v>
+        <v>0.04454307618430279</v>
       </c>
       <c r="N36">
-        <v>0.3681637684427428</v>
+        <v>0.3744031178297052</v>
       </c>
       <c r="O36">
-        <v>0.697927705603979</v>
+        <v>0.5879470385125486</v>
       </c>
       <c r="P36">
-        <v>-8.956005234859202E-16</v>
+        <v>-2.027226064936092E-16</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2249,37 +2249,37 @@
         <v>100000</v>
       </c>
       <c r="F37" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G37" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H37">
         <v>0.05</v>
       </c>
       <c r="I37">
-        <v>2149</v>
+        <v>696</v>
       </c>
       <c r="J37">
-        <v>15.52590697923484</v>
+        <v>3.0439564796093</v>
       </c>
       <c r="K37">
-        <v>0.5369939506747324</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="L37">
-        <v>2.216309627641539</v>
+        <v>-0.3024542386282838</v>
       </c>
       <c r="M37">
-        <v>0.1238364630544802</v>
+        <v>-0.008234777317192738</v>
       </c>
       <c r="N37">
-        <v>0.363836405827913</v>
+        <v>0.3619454688353939</v>
       </c>
       <c r="O37">
-        <v>0.6955397055529727</v>
+        <v>0.5797577161560358</v>
       </c>
       <c r="P37">
-        <v>-15.57781979525944</v>
+        <v>1.568492015098606</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2299,37 +2299,37 @@
         <v>100000</v>
       </c>
       <c r="F38" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G38" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H38">
         <v>0.05</v>
       </c>
       <c r="I38">
-        <v>2149</v>
+        <v>696</v>
       </c>
       <c r="J38">
-        <v>15.14991739943522</v>
+        <v>3.078179477561334</v>
       </c>
       <c r="K38">
-        <v>0.5369939506747324</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="L38">
-        <v>2.138420528665242</v>
+        <v>-0.2946117785527908</v>
       </c>
       <c r="M38">
-        <v>0.1293886268945413</v>
+        <v>0.03112351496934492</v>
       </c>
       <c r="N38">
-        <v>0.3638841090968881</v>
+        <v>0.3595947476586944</v>
       </c>
       <c r="O38">
-        <v>0.6952442273822785</v>
+        <v>0.5780980107338957</v>
       </c>
       <c r="P38">
-        <v>-23.36672969288916</v>
+        <v>2.352738022647908</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2349,37 +2349,37 @@
         <v>100000</v>
       </c>
       <c r="F39" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G39" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H39">
         <v>0.05</v>
       </c>
       <c r="I39">
-        <v>2149</v>
+        <v>696</v>
       </c>
       <c r="J39">
-        <v>15.52590697923484</v>
+        <v>3.0439564796093</v>
       </c>
       <c r="K39">
-        <v>0.5369939506747324</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="L39">
-        <v>2.216309627641539</v>
+        <v>-0.3024542386282838</v>
       </c>
       <c r="M39">
-        <v>0.1238364630544802</v>
+        <v>-0.008234777317192738</v>
       </c>
       <c r="N39">
-        <v>0.363836405827913</v>
+        <v>0.3619454688353939</v>
       </c>
       <c r="O39">
-        <v>0.6955397055529727</v>
+        <v>0.5797577161560358</v>
       </c>
       <c r="P39">
-        <v>-15.57781979525944</v>
+        <v>1.568492015098606</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2399,37 +2399,37 @@
         <v>100000</v>
       </c>
       <c r="F40" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G40" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H40">
         <v>0.05</v>
       </c>
       <c r="I40">
-        <v>2149</v>
+        <v>696</v>
       </c>
       <c r="J40">
-        <v>15.90189655903445</v>
+        <v>3.009733481657266</v>
       </c>
       <c r="K40">
-        <v>0.5369939506747324</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="L40">
-        <v>2.294198726617836</v>
+        <v>-0.3102966987037769</v>
       </c>
       <c r="M40">
-        <v>0.1189237003296333</v>
+        <v>-0.04164288237850584</v>
       </c>
       <c r="N40">
-        <v>0.3655861609266652</v>
+        <v>0.3681071190157009</v>
       </c>
       <c r="O40">
-        <v>0.6969646448271534</v>
+        <v>0.5847677538751396</v>
       </c>
       <c r="P40">
-        <v>-7.788909897629718</v>
+        <v>0.7842460075493022</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2449,37 +2449,37 @@
         <v>100000</v>
       </c>
       <c r="F41" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G41" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H41">
         <v>0.05</v>
       </c>
       <c r="I41">
-        <v>2149</v>
+        <v>696</v>
       </c>
       <c r="J41">
-        <v>16.27788613883407</v>
+        <v>2.975510483705232</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>2.372087825594134</v>
+        <v>-0.3181391587792698</v>
       </c>
       <c r="M41">
-        <v>0.1145708726730657</v>
+        <v>-0.06946121238691165</v>
       </c>
       <c r="N41">
-        <v>0.3689524433749554</v>
+        <v>0.3768915275342778</v>
       </c>
       <c r="O41">
-        <v>0.6993867472014661</v>
+        <v>0.5916619480779836</v>
       </c>
       <c r="P41">
-        <v>-8.712331822837897E-16</v>
+        <v>-2.450147364690001E-16</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2499,37 +2499,37 @@
         <v>100000</v>
       </c>
       <c r="F42" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G42" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H42">
         <v>0.05</v>
       </c>
       <c r="I42">
-        <v>2026</v>
+        <v>573</v>
       </c>
       <c r="J42">
-        <v>13.61987660169041</v>
+        <v>2.885206259904259</v>
       </c>
       <c r="K42">
-        <v>0.5592300098716683</v>
+        <v>0.3246073298429319</v>
       </c>
       <c r="L42">
-        <v>1.821460949102341</v>
+        <v>-0.3388330579753638</v>
       </c>
       <c r="M42">
-        <v>0.07265067283915848</v>
+        <v>-0.4439750993191801</v>
       </c>
       <c r="N42">
-        <v>0.3708761788968851</v>
+        <v>0.3763962283206482</v>
       </c>
       <c r="O42">
-        <v>0.714529396270177</v>
+        <v>0.6171786199639032</v>
       </c>
       <c r="P42">
-        <v>-69.32999756441657</v>
+        <v>8.094133811501225</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2549,37 +2549,37 @@
         <v>100000</v>
       </c>
       <c r="F43" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G43" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H43">
         <v>0.05</v>
       </c>
       <c r="I43">
-        <v>2026</v>
+        <v>573</v>
       </c>
       <c r="J43">
-        <v>13.95454932219121</v>
+        <v>2.849885005835002</v>
       </c>
       <c r="K43">
-        <v>0.5592300098716683</v>
+        <v>0.3246073298429319</v>
       </c>
       <c r="L43">
-        <v>1.890790946666757</v>
+        <v>-0.3469271917868651</v>
       </c>
       <c r="M43">
-        <v>0.07553244125312503</v>
+        <v>-0.4612006981001424</v>
       </c>
       <c r="N43">
-        <v>0.3714731811553</v>
+        <v>0.3811914791626465</v>
       </c>
       <c r="O43">
-        <v>0.7153336797432824</v>
+        <v>0.6213411423556244</v>
       </c>
       <c r="P43">
-        <v>-62.39699780797493</v>
+        <v>7.284720430351102</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2599,37 +2599,37 @@
         <v>100000</v>
       </c>
       <c r="F44" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G44" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H44">
         <v>0.05</v>
       </c>
       <c r="I44">
-        <v>2026</v>
+        <v>573</v>
       </c>
       <c r="J44">
-        <v>14.95856748369361</v>
+        <v>2.74392124362723</v>
       </c>
       <c r="K44">
-        <v>0.5592300098716683</v>
+        <v>0.3246073298429319</v>
       </c>
       <c r="L44">
-        <v>2.098780939360007</v>
+        <v>-0.3712095932213688</v>
       </c>
       <c r="M44">
-        <v>0.08203082340301147</v>
+        <v>-0.5123206096097742</v>
       </c>
       <c r="N44">
-        <v>0.3740291303871145</v>
+        <v>0.3966742423741218</v>
       </c>
       <c r="O44">
-        <v>0.7181165545392397</v>
+        <v>0.635066907713021</v>
       </c>
       <c r="P44">
-        <v>-41.59799853864995</v>
+        <v>4.856480286900734</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2649,37 +2649,37 @@
         <v>100000</v>
       </c>
       <c r="F45" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G45" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H45">
         <v>0.05</v>
       </c>
       <c r="I45">
-        <v>2026</v>
+        <v>573</v>
       </c>
       <c r="J45">
-        <v>15.96258564519601</v>
+        <v>2.637957481419458</v>
       </c>
       <c r="K45">
-        <v>0.5592300098716683</v>
+        <v>0.3246073298429319</v>
       </c>
       <c r="L45">
-        <v>2.306770932053257</v>
+        <v>-0.3954919946558724</v>
       </c>
       <c r="M45">
-        <v>0.08588511950363076</v>
+        <v>-0.5625259868006679</v>
       </c>
       <c r="N45">
-        <v>0.3775446698890135</v>
+        <v>0.4125875714493967</v>
       </c>
       <c r="O45">
-        <v>0.7220316367016713</v>
+        <v>0.6513212077263331</v>
       </c>
       <c r="P45">
-        <v>-20.79899926932498</v>
+        <v>2.428240143450368</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2699,37 +2699,37 @@
         <v>100000</v>
       </c>
       <c r="F46" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G46" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H46">
         <v>0.05</v>
       </c>
       <c r="I46">
-        <v>2026</v>
+        <v>573</v>
       </c>
       <c r="J46">
-        <v>16.96660380669841</v>
+        <v>2.531993719211687</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>2.514760924746507</v>
+        <v>-0.419774396090376</v>
       </c>
       <c r="M46">
-        <v>0.08756260247250004</v>
+        <v>-0.6117085852045017</v>
       </c>
       <c r="N46">
-        <v>0.3817930402097462</v>
+        <v>0.428364987193052</v>
       </c>
       <c r="O46">
-        <v>0.7268323656067074</v>
+        <v>0.6693626266729531</v>
       </c>
       <c r="P46">
-        <v>-8.960694421851213E-16</v>
+        <v>-1.240039678464398E-16</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2749,37 +2749,37 @@
         <v>100000</v>
       </c>
       <c r="F47" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G47" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H47">
         <v>0.05</v>
       </c>
       <c r="I47">
-        <v>1845</v>
+        <v>392</v>
       </c>
       <c r="J47">
-        <v>12.25609462761978</v>
+        <v>2.724889201754957</v>
       </c>
       <c r="K47">
-        <v>0.6368563685636857</v>
+        <v>0.3341836734693878</v>
       </c>
       <c r="L47">
-        <v>1.538943148430607</v>
+        <v>-0.3755709302599183</v>
       </c>
       <c r="M47">
-        <v>0.08672364166011789</v>
+        <v>-0.4686947029832496</v>
       </c>
       <c r="N47">
-        <v>0.3886724716007049</v>
+        <v>0.4062819197466728</v>
       </c>
       <c r="O47">
-        <v>0.7413752913643601</v>
+        <v>0.6672016648543334</v>
       </c>
       <c r="P47">
-        <v>-125.7062577513585</v>
+        <v>11.5436963644056</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2799,37 +2799,37 @@
         <v>100000</v>
       </c>
       <c r="F48" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G48" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H48">
         <v>0.05</v>
       </c>
       <c r="I48">
-        <v>1845</v>
+        <v>392</v>
       </c>
       <c r="J48">
-        <v>13.35939391413013</v>
+        <v>2.63329922680159</v>
       </c>
       <c r="K48">
-        <v>0.6368563685636857</v>
+        <v>0.3341836734693878</v>
       </c>
       <c r="L48">
-        <v>1.767499980705804</v>
+        <v>-0.3965594691042921</v>
       </c>
       <c r="M48">
-        <v>0.1083856359081399</v>
+        <v>-0.4989693094080294</v>
       </c>
       <c r="N48">
-        <v>0.3876916189511831</v>
+        <v>0.4145595817607299</v>
       </c>
       <c r="O48">
-        <v>0.7422699519644007</v>
+        <v>0.6776846614331266</v>
       </c>
       <c r="P48">
-        <v>-102.8505745238388</v>
+        <v>9.444842479968218</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2849,37 +2849,37 @@
         <v>100000</v>
       </c>
       <c r="F49" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G49" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H49">
         <v>0.05</v>
       </c>
       <c r="I49">
-        <v>1845</v>
+        <v>392</v>
       </c>
       <c r="J49">
-        <v>15.01434284389566</v>
+        <v>2.495914264371538</v>
       </c>
       <c r="K49">
-        <v>0.6368563685636857</v>
+        <v>0.3341836734693878</v>
       </c>
       <c r="L49">
-        <v>2.1103352291186</v>
+        <v>-0.4280422773708528</v>
       </c>
       <c r="M49">
-        <v>0.1341421606811232</v>
+        <v>-0.5454725156913899</v>
       </c>
       <c r="N49">
-        <v>0.3847730788186915</v>
+        <v>0.4288207310604985</v>
       </c>
       <c r="O49">
-        <v>0.742112655857236</v>
+        <v>0.6951826792650566</v>
       </c>
       <c r="P49">
-        <v>-68.56704968255917</v>
+        <v>6.296561653312149</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2899,37 +2899,37 @@
         <v>100000</v>
       </c>
       <c r="F50" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G50" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H50">
         <v>0.05</v>
       </c>
       <c r="I50">
-        <v>1845</v>
+        <v>392</v>
       </c>
       <c r="J50">
-        <v>16.66929177366119</v>
+        <v>2.358529301941487</v>
       </c>
       <c r="K50">
-        <v>0.6368563685636857</v>
+        <v>0.3341836734693878</v>
       </c>
       <c r="L50">
-        <v>2.453170477531396</v>
+        <v>-0.4595250856374137</v>
       </c>
       <c r="M50">
-        <v>0.1538252764772717</v>
+        <v>-0.5934172657876686</v>
       </c>
       <c r="N50">
-        <v>0.3824676523829126</v>
+        <v>0.4426373381559306</v>
       </c>
       <c r="O50">
-        <v>0.7427320764773513</v>
+        <v>0.7149320085037577</v>
       </c>
       <c r="P50">
-        <v>-34.28352484127964</v>
+        <v>3.148280826656067</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2949,37 +2949,37 @@
         <v>100000</v>
       </c>
       <c r="F51" s="2">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="G51" s="2">
-        <v>44945</v>
+        <v>44953</v>
       </c>
       <c r="H51">
         <v>0.05</v>
       </c>
       <c r="I51">
-        <v>1845</v>
+        <v>392</v>
       </c>
       <c r="J51">
-        <v>18.32424070342673</v>
+        <v>2.221144339511435</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>2.796005725944192</v>
+        <v>-0.4910078939039743</v>
       </c>
       <c r="M51">
-        <v>0.1685884837614472</v>
+        <v>-0.6430226457423435</v>
       </c>
       <c r="N51">
-        <v>0.3818284665734917</v>
+        <v>0.4551009012596808</v>
       </c>
       <c r="O51">
-        <v>0.7454117908825286</v>
+        <v>0.7369710856300217</v>
       </c>
       <c r="P51">
-        <v>-9.454647242769898E-16</v>
+        <v>2.356391725735026E-16</v>
       </c>
     </row>
   </sheetData>
